--- a/fuchs-1196307/Resources/Evaluation/StatistischeAuswertung.xlsx
+++ b/fuchs-1196307/Resources/Evaluation/StatistischeAuswertung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/703d5722948c27a2/Bachelor/Bachelorarbeit/Materialsammlung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="8_{23CFEE4D-1968-4701-BA64-DDC373C41F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FDDB1F2-F47D-4893-B7E6-161F738D3123}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="8_{23CFEE4D-1968-4701-BA64-DDC373C41F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF083FC4-072E-41F6-8ADE-870C35B22D18}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3AC56DB1-8B07-4714-9147-D34476872E83}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3AC56DB1-8B07-4714-9147-D34476872E83}"/>
   </bookViews>
   <sheets>
     <sheet name="3PersClust1" sheetId="3" r:id="rId1"/>
     <sheet name="2PersClust1" sheetId="2" r:id="rId2"/>
     <sheet name="2PersHighThreshold" sheetId="4" r:id="rId3"/>
+    <sheet name="Calc" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
   <si>
     <t>2017-04-05 08.16.53.128 +02.00.txt</t>
   </si>
@@ -104,6 +105,21 @@
   <si>
     <t>2017-04-04 18.04.06.507 +02.00.txt</t>
   </si>
+  <si>
+    <t>Clust3Pers</t>
+  </si>
+  <si>
+    <t>Clust2Pers</t>
+  </si>
+  <si>
+    <t>Clust2PersHighThreshold</t>
+  </si>
+  <si>
+    <t>Standardabw.</t>
+  </si>
+  <si>
+    <t>Standabw. Total:</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -185,11 +201,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -210,6 +297,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3666,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55499AD-9C7B-4295-89C0-2757ABF35C5A}">
   <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9795,4 +9909,2108 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B09259-33A8-41C9-A3DC-B2B4805941E7}">
+  <dimension ref="A1:AA54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11">
+        <v>-2.12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="D3" s="11">
+        <v>-0.59</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="15">
+        <f>STDEV(B3:B43)</f>
+        <v>0.14207811399434633</v>
+      </c>
+      <c r="I3" s="11">
+        <f>H3*H3</f>
+        <v>2.0186190476190472E-2</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
+        <v>-1.9</v>
+      </c>
+      <c r="L3" s="11">
+        <v>-0.34</v>
+      </c>
+      <c r="M3" s="11">
+        <v>-0.98</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>STDEV(K3:K49)</f>
+        <v>0.24322672371767651</v>
+      </c>
+      <c r="R3" s="11">
+        <f>Q3*Q3</f>
+        <v>5.9159239130434943E-2</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11">
+        <v>-1.9</v>
+      </c>
+      <c r="U3" s="11">
+        <v>-0.34</v>
+      </c>
+      <c r="V3" s="11">
+        <v>-0.98</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="15">
+        <f>STDEV(T3:T41)</f>
+        <v>0.16195759678969904</v>
+      </c>
+      <c r="AA3" s="11">
+        <f>Z3*Z3</f>
+        <v>2.6230263157894732E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="15">
+        <f>STDEV(C3:C43)</f>
+        <v>0.29092790794120721</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I6" si="0">H4*H4</f>
+        <v>8.463904761904753E-2</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="15">
+        <f>STDEV(L3:L49)</f>
+        <v>0.35411760103434403</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" ref="R4:R6" si="1">Q4*Q4</f>
+        <v>0.12539927536231885</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="15">
+        <f>STDEV(U3:U41)</f>
+        <v>0.2444564324545809</v>
+      </c>
+      <c r="AA4" s="11">
+        <f t="shared" ref="AA4:AA7" si="2">Z4*Z4</f>
+        <v>5.9758947368421078E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11">
+        <v>-1.72</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="D5" s="11">
+        <v>-0.65</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="15">
+        <f>STDEV(D3:D43)</f>
+        <v>0.16009818416031066</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5631428571428746E-2</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
+        <v>-1.73</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="11">
+        <v>-0.88</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>STDEV(M3:M49)</f>
+        <v>0.30556671038048883</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="1"/>
+        <v>9.3371014492753535E-2</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11">
+        <v>-1.73</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V5" s="11">
+        <v>-0.88</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="15">
+        <f>STDEV(V3:V41)</f>
+        <v>0.15999588810505805</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="2"/>
+        <v>2.5598684210526256E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17">
+        <f>STDEV(E3:E43)</f>
+        <v>8.6456705377673512E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>7.47476190476184E-3</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="17">
+        <f>STDEV(N3:N49)</f>
+        <v>0.12344613916750237</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5238949275362363E-2</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="17">
+        <f>STDEV(W3:W41)</f>
+        <v>8.1128552959257791E-2</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="2"/>
+        <v>6.5818421052630961E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11">
+        <v>-2.09</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="11">
+        <v>-1.01</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
+        <v>-1.67</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="M7" s="11">
+        <v>-0.61</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11">
+        <v>-1.67</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="V7" s="11">
+        <v>-0.61</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11">
+        <v>-1.83</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-0.7</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <v>-1.71</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="11">
+        <v>-0.62</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11">
+        <v>-1.71</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="V9" s="11">
+        <v>-0.62</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11">
+        <v>-2.06</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="11">
+        <v>-0.75</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
+        <v>-1.23</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="M11" s="11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11">
+        <v>-1.8</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V11" s="11">
+        <v>-0.67</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11">
+        <v>-2.09</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-0.61</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <v>-1.8</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M13" s="11">
+        <v>-0.67</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11">
+        <v>-1.89</v>
+      </c>
+      <c r="U13" s="11">
+        <v>-0.02</v>
+      </c>
+      <c r="V13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11">
+        <v>-1.84</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="D15" s="11">
+        <v>-0.64</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <v>-1.89</v>
+      </c>
+      <c r="L15" s="11">
+        <v>-0.02</v>
+      </c>
+      <c r="M15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="U15" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="V15" s="11">
+        <v>-0.88</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11">
+        <v>-1.96</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="D17" s="11">
+        <v>-0.66</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="L17" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="M17" s="11">
+        <v>-0.88</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11">
+        <v>-1.87</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="V17" s="11">
+        <v>-0.72</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11">
+        <v>-1.79</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-0.79</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
+        <v>-1.52</v>
+      </c>
+      <c r="L19" s="11">
+        <v>-0.23</v>
+      </c>
+      <c r="M19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V19" s="11">
+        <v>-0.7</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11">
+        <v>-2.06</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="D21" s="11">
+        <v>-0.47</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11">
+        <v>-1.87</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="M21" s="11">
+        <v>-0.72</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11">
+        <v>-1.95</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V21" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="D23" s="11">
+        <v>-0.81</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M23" s="11">
+        <v>-0.7</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11">
+        <v>-1.93</v>
+      </c>
+      <c r="U23" s="11">
+        <v>-0.32</v>
+      </c>
+      <c r="V23" s="11">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="11">
+        <v>-0.91</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11">
+        <v>-1.95</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M25" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11">
+        <v>-2.13</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="V25" s="11">
+        <v>-0.83</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11">
+        <v>-1.74</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="D27" s="11">
+        <v>-0.76</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
+        <v>-1.93</v>
+      </c>
+      <c r="L27" s="11">
+        <v>-0.32</v>
+      </c>
+      <c r="M27" s="11">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11">
+        <v>-1.76</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="V27" s="11">
+        <v>-0.73</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11">
+        <v>-1.84</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>-0.81</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11">
+        <v>-1.57</v>
+      </c>
+      <c r="L29" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11">
+        <v>-1.92</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="V29" s="11">
+        <v>-0.74</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11">
+        <v>-1.81</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="D31" s="11">
+        <v>-0.54</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11">
+        <v>-2.13</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="M31" s="11">
+        <v>-0.83</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11">
+        <v>-1.32</v>
+      </c>
+      <c r="U31" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="V31" s="11">
+        <v>-0.49</v>
+      </c>
+      <c r="W31" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11">
+        <v>-1.85</v>
+      </c>
+      <c r="C33" s="11">
+        <v>-0.04</v>
+      </c>
+      <c r="D33" s="11">
+        <v>-0.92</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11">
+        <v>-1.76</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="M33" s="11">
+        <v>-0.73</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11">
+        <v>-1.67</v>
+      </c>
+      <c r="U33" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="V33" s="11">
+        <v>-0.81</v>
+      </c>
+      <c r="W33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C35" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="D35" s="11">
+        <v>-0.85</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11">
+        <v>-1.92</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="M35" s="11">
+        <v>-0.74</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="U35" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="V35" s="11">
+        <v>-0.68</v>
+      </c>
+      <c r="W35" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11">
+        <v>-1.78</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="D37" s="11">
+        <v>-0.66</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11">
+        <v>-1.32</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="M37" s="11">
+        <v>-0.49</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11">
+        <v>-1.85</v>
+      </c>
+      <c r="U37" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="V37" s="11">
+        <v>-0.8</v>
+      </c>
+      <c r="W37" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11">
+        <v>-2</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="11">
+        <v>-0.66</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
+        <v>-1.08</v>
+      </c>
+      <c r="L39" s="11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="M39" s="11">
+        <v>-0.53</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11">
+        <v>-1.97</v>
+      </c>
+      <c r="U39" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="V39" s="11">
+        <v>-0.79</v>
+      </c>
+      <c r="W39" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="D41" s="11">
+        <v>-0.73</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11">
+        <v>-1.67</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="M41" s="11">
+        <v>-0.81</v>
+      </c>
+      <c r="N41" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="U41" s="11">
+        <v>-0.17</v>
+      </c>
+      <c r="V41" s="11">
+        <v>-0.92</v>
+      </c>
+      <c r="W41" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11">
+        <v>-1.89</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="D43" s="11">
+        <v>-0.63</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="M43" s="11">
+        <v>-0.68</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11">
+        <v>-1.85</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="M45" s="11">
+        <v>-0.8</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11">
+        <v>-1.97</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="M47" s="11">
+        <v>-0.79</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J49" s="11"/>
+      <c r="K49" s="11">
+        <v>-1.77</v>
+      </c>
+      <c r="L49" s="11">
+        <v>-0.17</v>
+      </c>
+      <c r="M49" s="11">
+        <v>-0.92</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>